--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Cntnap2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04670566666666667</v>
+        <v>0.030141</v>
       </c>
       <c r="H2">
-        <v>0.140117</v>
+        <v>0.090423</v>
       </c>
       <c r="I2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438168</v>
       </c>
       <c r="J2">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438169</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.006259999999999999</v>
+        <v>0.325705</v>
       </c>
       <c r="N2">
-        <v>0.01878</v>
+        <v>0.977115</v>
       </c>
       <c r="O2">
-        <v>0.01503655853368734</v>
+        <v>0.7005568664058349</v>
       </c>
       <c r="P2">
-        <v>0.01503655853368733</v>
+        <v>0.7005568664058349</v>
       </c>
       <c r="Q2">
-        <v>0.0002923774733333333</v>
+        <v>0.009817074404999999</v>
       </c>
       <c r="R2">
-        <v>0.00263139726</v>
+        <v>0.08835366964499999</v>
       </c>
       <c r="S2">
-        <v>0.006199597670865695</v>
+        <v>0.1672778619213996</v>
       </c>
       <c r="T2">
-        <v>0.006199597670865694</v>
+        <v>0.1672778619213996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04670566666666667</v>
+        <v>0.030141</v>
       </c>
       <c r="H3">
-        <v>0.140117</v>
+        <v>0.090423</v>
       </c>
       <c r="I3">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438168</v>
       </c>
       <c r="J3">
-        <v>0.4123016351764502</v>
+        <v>0.2387784203438169</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.325705</v>
+        <v>0.139218</v>
       </c>
       <c r="N3">
-        <v>0.977115</v>
+        <v>0.417654</v>
       </c>
       <c r="O3">
-        <v>0.7823454148905166</v>
+        <v>0.299443133594165</v>
       </c>
       <c r="P3">
-        <v>0.7823454148905166</v>
+        <v>0.299443133594165</v>
       </c>
       <c r="Q3">
-        <v>0.01521226916166667</v>
+        <v>0.004196169737999999</v>
       </c>
       <c r="R3">
-        <v>0.136910422455</v>
+        <v>0.037765527642</v>
       </c>
       <c r="S3">
-        <v>0.3225622938321583</v>
+        <v>0.07150055842241723</v>
       </c>
       <c r="T3">
-        <v>0.3225622938321583</v>
+        <v>0.07150055842241725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,51 +658,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04670566666666667</v>
+        <v>0.027635</v>
       </c>
       <c r="H4">
-        <v>0.140117</v>
+        <v>0.08290500000000001</v>
       </c>
       <c r="I4">
-        <v>0.4123016351764502</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="J4">
-        <v>0.4123016351764502</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08236133333333333</v>
+        <v>0.325705</v>
       </c>
       <c r="N4">
-        <v>0.247084</v>
+        <v>0.977115</v>
       </c>
       <c r="O4">
-        <v>0.1978324296452397</v>
+        <v>0.7005568664058349</v>
       </c>
       <c r="P4">
-        <v>0.1978324296452397</v>
+        <v>0.7005568664058349</v>
       </c>
       <c r="Q4">
-        <v>0.003846740980888889</v>
+        <v>0.009000857675</v>
       </c>
       <c r="R4">
-        <v>0.034620668828</v>
+        <v>0.081007719075</v>
       </c>
       <c r="S4">
-        <v>0.08156663423366238</v>
+        <v>0.1533699517002713</v>
       </c>
       <c r="T4">
-        <v>0.08156663423366237</v>
+        <v>0.1533699517002713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,51 +720,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04670566666666667</v>
+        <v>0.027635</v>
       </c>
       <c r="H5">
-        <v>0.140117</v>
+        <v>0.08290500000000001</v>
       </c>
       <c r="I5">
-        <v>0.4123016351764502</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="J5">
-        <v>0.4123016351764502</v>
+        <v>0.2189257704190763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.001992333333333333</v>
+        <v>0.139218</v>
       </c>
       <c r="N5">
-        <v>0.005977000000000001</v>
+        <v>0.417654</v>
       </c>
       <c r="O5">
-        <v>0.004785596930556402</v>
+        <v>0.299443133594165</v>
       </c>
       <c r="P5">
-        <v>0.004785596930556402</v>
+        <v>0.299443133594165</v>
       </c>
       <c r="Q5">
-        <v>9.305325655555557E-05</v>
+        <v>0.00384728943</v>
       </c>
       <c r="R5">
-        <v>0.0008374793090000002</v>
+        <v>0.03462560487</v>
       </c>
       <c r="S5">
-        <v>0.001973109439763805</v>
+        <v>0.06555581871880496</v>
       </c>
       <c r="T5">
-        <v>0.001973109439763805</v>
+        <v>0.06555581871880498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,51 +782,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.027635</v>
+        <v>0.068454</v>
       </c>
       <c r="H6">
-        <v>0.08290499999999999</v>
+        <v>0.205362</v>
       </c>
       <c r="I6">
-        <v>0.2439523188785343</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="J6">
-        <v>0.2439523188785344</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.006259999999999999</v>
+        <v>0.325705</v>
       </c>
       <c r="N6">
-        <v>0.01878</v>
+        <v>0.977115</v>
       </c>
       <c r="O6">
-        <v>0.01503655853368734</v>
+        <v>0.7005568664058349</v>
       </c>
       <c r="P6">
-        <v>0.01503655853368733</v>
+        <v>0.7005568664058349</v>
       </c>
       <c r="Q6">
-        <v>0.0001729951</v>
+        <v>0.02229581007</v>
       </c>
       <c r="R6">
-        <v>0.0015569559</v>
+        <v>0.20066229063</v>
       </c>
       <c r="S6">
-        <v>0.003668203322245839</v>
+        <v>0.379909052784164</v>
       </c>
       <c r="T6">
-        <v>0.003668203322245839</v>
+        <v>0.379909052784164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.027635</v>
+        <v>0.068454</v>
       </c>
       <c r="H7">
-        <v>0.08290499999999999</v>
+        <v>0.205362</v>
       </c>
       <c r="I7">
-        <v>0.2439523188785343</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="J7">
-        <v>0.2439523188785344</v>
+        <v>0.5422958092371069</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,400 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.325705</v>
+        <v>0.139218</v>
       </c>
       <c r="N7">
-        <v>0.977115</v>
+        <v>0.417654</v>
       </c>
       <c r="O7">
-        <v>0.7823454148905166</v>
+        <v>0.299443133594165</v>
       </c>
       <c r="P7">
-        <v>0.7823454148905166</v>
+        <v>0.299443133594165</v>
       </c>
       <c r="Q7">
-        <v>0.009000857674999998</v>
+        <v>0.009530028971999999</v>
       </c>
       <c r="R7">
-        <v>0.08100771907499998</v>
+        <v>0.08577026074799998</v>
       </c>
       <c r="S7">
-        <v>0.1908549781265305</v>
+        <v>0.1623867564529428</v>
       </c>
       <c r="T7">
-        <v>0.1908549781265306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.027635</v>
-      </c>
-      <c r="H8">
-        <v>0.08290499999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.2439523188785343</v>
-      </c>
-      <c r="J8">
-        <v>0.2439523188785344</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.08236133333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.247084</v>
-      </c>
-      <c r="O8">
-        <v>0.1978324296452397</v>
-      </c>
-      <c r="P8">
-        <v>0.1978324296452397</v>
-      </c>
-      <c r="Q8">
-        <v>0.002276055446666666</v>
-      </c>
-      <c r="R8">
-        <v>0.02048449902</v>
-      </c>
-      <c r="S8">
-        <v>0.04826167996133073</v>
-      </c>
-      <c r="T8">
-        <v>0.04826167996133073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.027635</v>
-      </c>
-      <c r="H9">
-        <v>0.08290499999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.2439523188785343</v>
-      </c>
-      <c r="J9">
-        <v>0.2439523188785344</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.001992333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.005977000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.004785596930556402</v>
-      </c>
-      <c r="P9">
-        <v>0.004785596930556402</v>
-      </c>
-      <c r="Q9">
-        <v>5.505813166666666E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000495523185</v>
-      </c>
-      <c r="S9">
-        <v>0.00116745746842723</v>
-      </c>
-      <c r="T9">
-        <v>0.001167457468427231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03893966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.116819</v>
-      </c>
-      <c r="I10">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="J10">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.006259999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.01878</v>
-      </c>
-      <c r="O10">
-        <v>0.01503655853368734</v>
-      </c>
-      <c r="P10">
-        <v>0.01503655853368733</v>
-      </c>
-      <c r="Q10">
-        <v>0.0002437623133333333</v>
-      </c>
-      <c r="R10">
-        <v>0.00219386082</v>
-      </c>
-      <c r="S10">
-        <v>0.005168757540575802</v>
-      </c>
-      <c r="T10">
-        <v>0.005168757540575801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03893966666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.116819</v>
-      </c>
-      <c r="I11">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="J11">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.325705</v>
-      </c>
-      <c r="N11">
-        <v>0.977115</v>
-      </c>
-      <c r="O11">
-        <v>0.7823454148905166</v>
-      </c>
-      <c r="P11">
-        <v>0.7823454148905166</v>
-      </c>
-      <c r="Q11">
-        <v>0.01268284413166667</v>
-      </c>
-      <c r="R11">
-        <v>0.114145597185</v>
-      </c>
-      <c r="S11">
-        <v>0.2689281429318277</v>
-      </c>
-      <c r="T11">
-        <v>0.2689281429318277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03893966666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.116819</v>
-      </c>
-      <c r="I12">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="J12">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.08236133333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.247084</v>
-      </c>
-      <c r="O12">
-        <v>0.1978324296452397</v>
-      </c>
-      <c r="P12">
-        <v>0.1978324296452397</v>
-      </c>
-      <c r="Q12">
-        <v>0.003207122866222222</v>
-      </c>
-      <c r="R12">
-        <v>0.028864105796</v>
-      </c>
-      <c r="S12">
-        <v>0.06800411545024661</v>
-      </c>
-      <c r="T12">
-        <v>0.06800411545024661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03893966666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.116819</v>
-      </c>
-      <c r="I13">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="J13">
-        <v>0.3437460459450155</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.001992333333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.005977000000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.004785596930556402</v>
-      </c>
-      <c r="P13">
-        <v>0.004785596930556402</v>
-      </c>
-      <c r="Q13">
-        <v>7.75807958888889E-05</v>
-      </c>
-      <c r="R13">
-        <v>0.000698227163</v>
-      </c>
-      <c r="S13">
-        <v>0.001645030022365366</v>
-      </c>
-      <c r="T13">
-        <v>0.001645030022365366</v>
+        <v>0.1623867564529428</v>
       </c>
     </row>
   </sheetData>
